--- a/excel2json-master/PlayerStat_Data.xlsx
+++ b/excel2json-master/PlayerStat_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이영선\Desktop\Sparta_Club\Project_P\Project_P\excel2json-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C181D6B-6F4F-4804-97FB-946FBF135B47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{870E78D3-724A-489B-A2EE-B6DB084F1928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14940" yWindow="1680" windowWidth="13365" windowHeight="11880" xr2:uid="{8E541560-C0DE-451A-86CF-CC8DC2B3191B}"/>
+    <workbookView xWindow="12270" yWindow="4500" windowWidth="14940" windowHeight="9540" xr2:uid="{8E541560-C0DE-451A-86CF-CC8DC2B3191B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Damage</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,15 +72,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Speed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Magician</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>#PlayerStat[{}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CharacterID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoveSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skills[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PrefabPath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player/M05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player/M06</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -156,7 +188,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -183,6 +215,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -498,94 +536,121 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{630F20CA-10B8-4562-8C1C-8351893C715C}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.625" customWidth="1"/>
-    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" customWidth="1"/>
+    <col min="4" max="4" width="15.125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.625" customWidth="1"/>
+    <col min="12" max="12" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="5" customFormat="1">
-      <c r="B2" s="4" t="s">
+      <c r="L1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="5" customFormat="1">
+      <c r="B2" s="5">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>2</v>
-      </c>
-      <c r="C2" s="6">
-        <v>20</v>
-      </c>
-      <c r="D2" s="6">
-        <v>10</v>
       </c>
       <c r="E2" s="6">
         <v>20</v>
       </c>
       <c r="F2" s="6">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G2" s="6">
-        <v>1</v>
-      </c>
-      <c r="H2" s="4">
+        <v>20</v>
+      </c>
+      <c r="H2" s="6">
+        <v>1</v>
+      </c>
+      <c r="I2" s="6">
+        <v>1</v>
+      </c>
+      <c r="J2" s="4">
         <v>0</v>
       </c>
-      <c r="I2" s="8">
-        <v>1</v>
-      </c>
-      <c r="J2" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="5" customFormat="1">
-      <c r="B3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="6">
-        <v>1</v>
-      </c>
-      <c r="D3" s="6">
-        <v>1</v>
+      <c r="K2" s="8">
+        <v>1</v>
+      </c>
+      <c r="L2" s="6">
+        <v>1</v>
+      </c>
+      <c r="M2" s="10">
+        <v>101102103</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="5" customFormat="1">
+      <c r="B3" s="5">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="E3" s="6">
         <v>1</v>
@@ -596,87 +661,99 @@
       <c r="G3" s="6">
         <v>1</v>
       </c>
-      <c r="H3" s="4">
-        <v>1</v>
-      </c>
-      <c r="I3" s="4">
-        <v>1</v>
-      </c>
-      <c r="J3" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" s="5" customFormat="1">
-      <c r="B4" s="4"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
+      <c r="H3" s="6">
+        <v>1</v>
+      </c>
+      <c r="I3" s="6">
+        <v>1</v>
+      </c>
+      <c r="J3" s="4">
+        <v>1</v>
+      </c>
+      <c r="K3" s="4">
+        <v>1</v>
+      </c>
+      <c r="L3" s="6">
+        <v>1</v>
+      </c>
+      <c r="M3" s="10">
+        <v>101102103</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" s="5" customFormat="1">
+      <c r="D4" s="4"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="7"/>
-    </row>
-    <row r="5" spans="1:10" s="5" customFormat="1">
-      <c r="B5" s="4"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="7"/>
+    </row>
+    <row r="5" spans="1:14" s="5" customFormat="1">
+      <c r="D5" s="4"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="1:10" s="5" customFormat="1">
-      <c r="B6" s="4"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:14" s="5" customFormat="1">
+      <c r="D6" s="4"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="7"/>
-    </row>
-    <row r="7" spans="1:10" s="5" customFormat="1">
-      <c r="B7" s="4"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="7"/>
+    </row>
+    <row r="7" spans="1:14" s="5" customFormat="1">
+      <c r="D7" s="4"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-    </row>
-    <row r="8" spans="1:10" s="5" customFormat="1">
-      <c r="B8" s="4"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="1:14" s="5" customFormat="1">
+      <c r="D8" s="4"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="7"/>
-    </row>
-    <row r="9" spans="1:10" s="5" customFormat="1">
-      <c r="B9" s="4"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="7"/>
+    </row>
+    <row r="9" spans="1:14" s="5" customFormat="1">
+      <c r="D9" s="4"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="7"/>
-    </row>
-    <row r="10" spans="1:10" s="5" customFormat="1">
-      <c r="B10" s="4"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="7"/>
+    </row>
+    <row r="10" spans="1:14" s="5" customFormat="1">
+      <c r="D10" s="4"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="7"/>
-    </row>
-    <row r="11" spans="1:10" s="5" customFormat="1">
-      <c r="B11" s="4"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="7"/>
+    </row>
+    <row r="11" spans="1:14" s="5" customFormat="1">
+      <c r="D11" s="4"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="7"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/excel2json-master/PlayerStat_Data.xlsx
+++ b/excel2json-master/PlayerStat_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이영선\Desktop\Sparta_Club\Project_P\Project_P\excel2json-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{870E78D3-724A-489B-A2EE-B6DB084F1928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47B0F355-3E00-46B1-8B16-800260D32C42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12270" yWindow="4500" windowWidth="14940" windowHeight="9540" xr2:uid="{8E541560-C0DE-451A-86CF-CC8DC2B3191B}"/>
+    <workbookView xWindow="1005" yWindow="2070" windowWidth="19380" windowHeight="13260" xr2:uid="{8E541560-C0DE-451A-86CF-CC8DC2B3191B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -188,7 +188,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -209,9 +209,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -536,10 +533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{630F20CA-10B8-4562-8C1C-8351893C715C}">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -561,10 +558,10 @@
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D1" s="3" t="s">
@@ -629,13 +626,13 @@
       <c r="J2" s="4">
         <v>0</v>
       </c>
-      <c r="K2" s="8">
+      <c r="K2" s="7">
         <v>1</v>
       </c>
       <c r="L2" s="6">
         <v>1</v>
       </c>
-      <c r="M2" s="10">
+      <c r="M2" s="9">
         <v>101102103</v>
       </c>
       <c r="N2" s="6" t="s">
@@ -676,84 +673,12 @@
       <c r="L3" s="6">
         <v>1</v>
       </c>
-      <c r="M3" s="10">
+      <c r="M3" s="9">
         <v>101102103</v>
       </c>
       <c r="N3" s="6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" s="5" customFormat="1">
-      <c r="D4" s="4"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="7"/>
-    </row>
-    <row r="5" spans="1:14" s="5" customFormat="1">
-      <c r="D5" s="4"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-    </row>
-    <row r="6" spans="1:14" s="5" customFormat="1">
-      <c r="D6" s="4"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="7"/>
-    </row>
-    <row r="7" spans="1:14" s="5" customFormat="1">
-      <c r="D7" s="4"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-    </row>
-    <row r="8" spans="1:14" s="5" customFormat="1">
-      <c r="D8" s="4"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="7"/>
-    </row>
-    <row r="9" spans="1:14" s="5" customFormat="1">
-      <c r="D9" s="4"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="7"/>
-    </row>
-    <row r="10" spans="1:14" s="5" customFormat="1">
-      <c r="D10" s="4"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="7"/>
-    </row>
-    <row r="11" spans="1:14" s="5" customFormat="1">
-      <c r="D11" s="4"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/excel2json-master/PlayerStat_Data.xlsx
+++ b/excel2json-master/PlayerStat_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이영선\Desktop\Sparta_Club\Project_P\Project_P\excel2json-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47B0F355-3E00-46B1-8B16-800260D32C42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AA6BD59-A64E-4CE5-A12C-573722E1BC34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1005" yWindow="2070" windowWidth="19380" windowHeight="13260" xr2:uid="{8E541560-C0DE-451A-86CF-CC8DC2B3191B}"/>
+    <workbookView xWindow="10815" yWindow="540" windowWidth="17190" windowHeight="14685" xr2:uid="{8E541560-C0DE-451A-86CF-CC8DC2B3191B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -160,7 +160,7 @@
       <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -170,6 +170,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -188,7 +194,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -217,6 +223,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -536,7 +545,7 @@
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -617,8 +626,8 @@
       <c r="G2" s="6">
         <v>20</v>
       </c>
-      <c r="H2" s="6">
-        <v>1</v>
+      <c r="H2" s="10">
+        <v>0.5</v>
       </c>
       <c r="I2" s="6">
         <v>1</v>
@@ -658,8 +667,8 @@
       <c r="G3" s="6">
         <v>1</v>
       </c>
-      <c r="H3" s="6">
-        <v>1</v>
+      <c r="H3" s="10">
+        <v>0.5</v>
       </c>
       <c r="I3" s="6">
         <v>1</v>

--- a/excel2json-master/PlayerStat_Data.xlsx
+++ b/excel2json-master/PlayerStat_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이영선\Desktop\Sparta_Club\Project_P\Project_P\excel2json-master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity\Project_P\excel2json-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AA6BD59-A64E-4CE5-A12C-573722E1BC34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE28140F-D283-4B84-A508-40BB91E884D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10815" yWindow="540" windowWidth="17190" windowHeight="14685" xr2:uid="{8E541560-C0DE-451A-86CF-CC8DC2B3191B}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{8E541560-C0DE-451A-86CF-CC8DC2B3191B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -120,7 +120,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -246,9 +246,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -286,7 +286,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -392,7 +392,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -534,7 +534,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -545,25 +545,25 @@
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.625" customWidth="1"/>
-    <col min="4" max="4" width="15.125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.625" customWidth="1"/>
-    <col min="12" max="12" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.59765625" customWidth="1"/>
+    <col min="4" max="4" width="15.09765625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="14.19921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.09765625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.59765625" customWidth="1"/>
+    <col min="12" max="12" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.09765625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -607,7 +607,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="5" customFormat="1">
+    <row r="2" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B2" s="5">
         <v>1</v>
       </c>
@@ -642,13 +642,13 @@
         <v>1</v>
       </c>
       <c r="M2" s="9">
-        <v>101102103</v>
+        <v>101102103104</v>
       </c>
       <c r="N2" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="5" customFormat="1">
+    <row r="3" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B3" s="5">
         <v>2</v>
       </c>
@@ -683,7 +683,7 @@
         <v>1</v>
       </c>
       <c r="M3" s="9">
-        <v>101102103</v>
+        <v>101102103104</v>
       </c>
       <c r="N3" s="6" t="s">
         <v>19</v>
